--- a/companies/empty-report.xlsx
+++ b/companies/empty-report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Company Information</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Audience: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Structure:</t>
   </si>
   <si>
     <t xml:space="preserve">Page Name</t>
@@ -75,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,6 +94,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -152,11 +156,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,13 +241,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="18.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.93"/>
@@ -286,11 +290,6 @@
     <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -315,7 +314,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.7"/>
@@ -328,22 +327,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
